--- a/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T09:08:11+00:00</t>
+    <t>2024-06-26T09:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T09:17:23+00:00</t>
+    <t>2024-06-26T09:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T09:18:13+00:00</t>
+    <t>2024-06-26T09:22:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T09:22:02+00:00</t>
+    <t>2024-06-26T09:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T09:50:24+00:00</t>
+    <t>2024-06-26T10:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T10:01:17+00:00</t>
+    <t>2024-06-26T10:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-add-examples/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T10:02:16+00:00</t>
+    <t>2024-06-26T10:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
